--- a/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
+++ b/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\especificacoes-portal-transparencia\espec018_recursos-acordo-judicial-vale\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E4B25-B9E1-4249-B7AC-20D8DE298D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54291645-F66B-4431-BAEA-8245FE0FEC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" tabRatio="747" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" tabRatio="747" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pesquisa Básica Opcao 1 " sheetId="19" state="hidden" r:id="rId1"/>
@@ -221,9 +221,6 @@
     <t>Inscrição em Restos a Pagar</t>
   </si>
   <si>
-    <t>Valor Inscrito:</t>
-  </si>
-  <si>
     <t>Liquidação em Restos a Pagar</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>Detalhar</t>
-  </si>
-  <si>
-    <t>Tipo de Inscrição:</t>
   </si>
   <si>
     <t>Valor Liquidado RP</t>
@@ -554,6 +548,12 @@
   </si>
   <si>
     <t>Unidade Executora</t>
+  </si>
+  <si>
+    <t>Valor :</t>
+  </si>
+  <si>
+    <t>Descrição:</t>
   </si>
 </sst>
 </file>
@@ -2620,9 +2620,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="31" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2711,6 +2708,9 @@
     <xf numFmtId="8" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2732,65 +2732,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2833,6 +2779,54 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
@@ -2969,8 +2963,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23545,7 +23545,7 @@
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="28.5" customHeight="1">
       <c r="B15" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -23582,7 +23582,7 @@
     </row>
     <row r="17" spans="2:17" ht="11.25" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -23731,7 +23731,7 @@
     </row>
     <row r="39" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
       <c r="B39" s="127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="127"/>
       <c r="D39" s="127"/>
@@ -23745,7 +23745,7 @@
       </c>
       <c r="K39" s="126"/>
       <c r="L39" s="126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="126"/>
       <c r="N39" s="126" t="s">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="O39" s="126"/>
       <c r="P39" s="126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="126"/>
     </row>
@@ -23834,7 +23834,7 @@
   <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23933,60 +23933,60 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1">
-      <c r="B6" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
+      <c r="B6" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="2:17" ht="27.6">
       <c r="B7" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>83</v>
-      </c>
       <c r="E7" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="33.75" customHeight="1">
-      <c r="B8" s="152" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
+      <c r="B8" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="136"/>
     </row>
     <row r="9" spans="2:17" ht="41.25" customHeight="1">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="135"/>
+      <c r="D9" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="138"/>
+      <c r="F9" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="153"/>
-      <c r="D9" s="155" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="156"/>
-      <c r="F9" s="208" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
     </row>
     <row r="10" spans="2:17" ht="69" customHeight="1" thickBot="1">
-      <c r="B10" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="159"/>
+      <c r="B10" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1">
       <c r="B11" s="82"/>
@@ -23995,12 +23995,12 @@
       <c r="E11" s="82"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1">
-      <c r="B12" s="160" t="s">
+      <c r="B12" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="161"/>
-      <c r="D12" s="161"/>
-      <c r="E12" s="162"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="76" t="s">
@@ -24009,10 +24009,10 @@
       <c r="C13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="144" t="s">
+      <c r="D13" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="145"/>
+      <c r="E13" s="146"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="81">
@@ -24021,10 +24021,10 @@
       <c r="C14" s="80">
         <v>196</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="136"/>
+      <c r="D14" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="130"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="81">
@@ -24033,10 +24033,10 @@
       <c r="C15" s="80">
         <v>241</v>
       </c>
-      <c r="D15" s="135" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="136"/>
+      <c r="D15" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="130"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
       <c r="B16" s="79" t="s">
@@ -24044,7 +24044,7 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="77"/>
-      <c r="E16" s="98">
+      <c r="E16" s="97">
         <v>90427000</v>
       </c>
     </row>
@@ -24055,12 +24055,12 @@
       <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B18" s="146" t="s">
+      <c r="B18" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="76" t="s">
@@ -24069,10 +24069,10 @@
       <c r="C19" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="145"/>
+      <c r="E19" s="146"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="81">
@@ -24081,10 +24081,10 @@
       <c r="C20" s="80">
         <v>188</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="136"/>
+      <c r="D20" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="130"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="81">
@@ -24093,10 +24093,10 @@
       <c r="C21" s="80">
         <v>189</v>
       </c>
-      <c r="D21" s="135" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="136"/>
+      <c r="D21" s="129" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="130"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="81">
@@ -24105,10 +24105,10 @@
       <c r="C22" s="80">
         <v>203</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="136"/>
+      <c r="D22" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="130"/>
     </row>
     <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="B23" s="81">
@@ -24117,10 +24117,10 @@
       <c r="C23" s="80">
         <v>214</v>
       </c>
-      <c r="D23" s="135" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="136"/>
+      <c r="D23" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="130"/>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1">
       <c r="B24" s="74" t="s">
@@ -24128,83 +24128,92 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="99" t="s">
-        <v>94</v>
+      <c r="E24" s="98" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1"/>
     <row r="26" spans="2:8" ht="15" thickBot="1">
-      <c r="B26" s="137" t="s">
+      <c r="B26" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="139"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="158"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="140" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="141"/>
-      <c r="F27" s="133" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
+      <c r="C27" s="208" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="206" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="207"/>
+      <c r="F27" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
     </row>
     <row r="28" spans="2:8" ht="24">
-      <c r="B28" s="100">
+      <c r="B28" s="99">
         <v>44932</v>
       </c>
-      <c r="C28" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="142">
+      <c r="C28" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="159">
         <v>93983888.390000001</v>
       </c>
-      <c r="E28" s="143"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134"/>
-      <c r="H28" s="134"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
     </row>
     <row r="29" spans="2:8" ht="24">
-      <c r="B29" s="102">
+      <c r="B29" s="101">
         <v>45295</v>
       </c>
-      <c r="C29" s="103" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="129">
+      <c r="C29" s="102" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="150">
         <v>84674309.719999999</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="134"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="154"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
     </row>
     <row r="30" spans="2:8" ht="24.6" thickBot="1">
-      <c r="B30" s="104">
+      <c r="B30" s="103">
         <v>45376</v>
       </c>
-      <c r="C30" s="105" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="131">
+      <c r="C30" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="152">
         <v>-24000000</v>
       </c>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F27:H30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B8:E8"/>
@@ -24217,15 +24226,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F27:H30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24237,7 +24237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBDAE66-B66A-48DA-848C-69A723A60232}">
   <dimension ref="B1:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -24258,22 +24258,22 @@
     </row>
     <row r="6" spans="2:17" ht="9.75" hidden="1" customHeight="1"/>
     <row r="7" spans="2:17" ht="36.75" hidden="1" customHeight="1">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="163"/>
-      <c r="L7" s="163"/>
-      <c r="M7" s="163"/>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
     </row>
     <row r="8" spans="2:17" ht="12.75" customHeight="1">
       <c r="B8" s="67"/>
@@ -24361,12 +24361,12 @@
     </row>
     <row r="13" spans="2:17" ht="15" thickBot="1"/>
     <row r="14" spans="2:17">
-      <c r="B14" s="164" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="166"/>
+      <c r="B14" s="162" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="163"/>
+      <c r="D14" s="163"/>
+      <c r="E14" s="164"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1">
       <c r="B15" s="71" t="s">
@@ -24379,195 +24379,195 @@
         <v>48</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
-      <c r="B16" s="106">
+      <c r="B16" s="105">
         <v>44641</v>
       </c>
-      <c r="C16" s="107">
+      <c r="C16" s="106">
         <v>3</v>
       </c>
-      <c r="D16" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="108">
+      <c r="D16" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="107">
         <v>-690092.97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1">
-      <c r="B17" s="106">
+      <c r="B17" s="105">
         <v>44641</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="106">
         <v>60</v>
       </c>
-      <c r="D17" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="109">
+      <c r="D17" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="108">
         <v>690092.97</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1">
-      <c r="B18" s="106">
+      <c r="B18" s="105">
         <v>44642</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="106">
         <v>61</v>
       </c>
-      <c r="D18" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="109">
+      <c r="D18" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="108">
         <v>690092.07</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1">
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <v>44680</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="106">
         <v>134</v>
       </c>
-      <c r="D19" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="109">
+      <c r="D19" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="108">
         <v>223201.87</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1">
-      <c r="B20" s="106">
+      <c r="B20" s="105">
         <v>44698</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="106">
         <v>163</v>
       </c>
-      <c r="D20" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="109">
+      <c r="D20" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="108">
         <v>241326.76</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1">
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>44735</v>
       </c>
-      <c r="C21" s="107">
+      <c r="C21" s="106">
         <v>237</v>
       </c>
-      <c r="D21" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="109">
+      <c r="D21" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="108">
         <v>645585.44999999995</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="106">
+      <c r="B22" s="105">
         <v>44767</v>
       </c>
-      <c r="C22" s="107">
+      <c r="C22" s="106">
         <v>306</v>
       </c>
-      <c r="D22" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="109">
+      <c r="D22" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="108">
         <v>611167.96</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1">
-      <c r="B23" s="106">
+      <c r="B23" s="105">
         <v>44790</v>
       </c>
-      <c r="C23" s="107">
+      <c r="C23" s="106">
         <v>342</v>
       </c>
-      <c r="D23" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="109">
+      <c r="D23" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="108">
         <v>734337.23</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1">
-      <c r="B24" s="106">
+      <c r="B24" s="105">
         <v>44826</v>
       </c>
-      <c r="C24" s="107">
+      <c r="C24" s="106">
         <v>402</v>
       </c>
-      <c r="D24" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="109">
+      <c r="D24" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="108">
         <v>864643.87</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1">
-      <c r="B25" s="106">
+      <c r="B25" s="105">
         <v>44858</v>
       </c>
-      <c r="C25" s="107">
+      <c r="C25" s="106">
         <v>493</v>
       </c>
-      <c r="D25" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="109">
+      <c r="D25" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="108">
         <v>1022841.39</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1">
-      <c r="B26" s="106">
+      <c r="B26" s="105">
         <v>44893</v>
       </c>
-      <c r="C26" s="107">
+      <c r="C26" s="106">
         <v>588</v>
       </c>
-      <c r="D26" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="109">
+      <c r="D26" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="108">
         <v>943408.64000000001</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1">
-      <c r="B27" s="106">
+      <c r="B27" s="105">
         <v>44918</v>
       </c>
-      <c r="C27" s="107">
+      <c r="C27" s="106">
         <v>651</v>
       </c>
-      <c r="D27" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="109">
+      <c r="D27" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="108">
         <v>1476861.58</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1">
-      <c r="B28" s="167" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="110">
+      <c r="B28" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="109">
         <v>7453466.8200000003</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1"/>
     <row r="30" spans="2:8">
-      <c r="B30" s="170" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="172"/>
+      <c r="B30" s="168" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="170"/>
     </row>
     <row r="31" spans="2:8" ht="15" thickBot="1">
       <c r="B31" s="71" t="s">
@@ -24580,188 +24580,188 @@
         <v>48</v>
       </c>
       <c r="E31" s="68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="106" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="107">
+      <c r="B32" s="105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="106">
         <v>31</v>
       </c>
-      <c r="D32" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="109">
+      <c r="D32" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="108">
         <v>1238097.06</v>
       </c>
-      <c r="F32" s="176" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
+      <c r="F32" s="174" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1">
-      <c r="B33" s="106">
+      <c r="B33" s="105">
         <v>44998</v>
       </c>
-      <c r="C33" s="107">
+      <c r="C33" s="106">
         <v>73</v>
       </c>
-      <c r="D33" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="109">
+      <c r="D33" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="108">
         <v>1502509.18</v>
       </c>
-      <c r="F33" s="176"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="177"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1">
-      <c r="B34" s="106">
+      <c r="B34" s="105">
         <v>45027</v>
       </c>
-      <c r="C34" s="107">
+      <c r="C34" s="106">
         <v>99</v>
       </c>
-      <c r="D34" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="109">
+      <c r="D34" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="108">
         <v>347103.23</v>
       </c>
-      <c r="F34" s="176"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="177"/>
+      <c r="F34" s="174"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1">
-      <c r="B35" s="106">
+      <c r="B35" s="105">
         <v>45036</v>
       </c>
-      <c r="C35" s="107">
+      <c r="C35" s="106">
         <v>122</v>
       </c>
-      <c r="D35" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="109">
+      <c r="D35" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="108">
         <v>1252620.23</v>
       </c>
-      <c r="F35" s="176"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="177"/>
+      <c r="F35" s="174"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
     </row>
     <row r="36" spans="2:8" ht="15" thickBot="1">
-      <c r="B36" s="106">
+      <c r="B36" s="105">
         <v>45063</v>
       </c>
-      <c r="C36" s="107">
+      <c r="C36" s="106">
         <v>157</v>
       </c>
-      <c r="D36" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="109">
+      <c r="D36" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="108">
         <v>907859.51</v>
       </c>
-      <c r="F36" s="176"/>
-      <c r="G36" s="177"/>
-      <c r="H36" s="177"/>
+      <c r="F36" s="174"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1">
-      <c r="B37" s="106">
+      <c r="B37" s="105">
         <v>45104</v>
       </c>
-      <c r="C37" s="107">
+      <c r="C37" s="106">
         <v>186</v>
       </c>
-      <c r="D37" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="109">
+      <c r="D37" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="108">
         <v>2867391.06</v>
       </c>
-      <c r="F37" s="176"/>
-      <c r="G37" s="177"/>
-      <c r="H37" s="177"/>
+      <c r="F37" s="174"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1">
-      <c r="B38" s="106">
+      <c r="B38" s="105">
         <v>45135</v>
       </c>
-      <c r="C38" s="107">
+      <c r="C38" s="106">
         <v>203</v>
       </c>
-      <c r="D38" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="109">
+      <c r="D38" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="108">
         <v>1193998.3999999999</v>
       </c>
-      <c r="F38" s="176"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="177"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1">
-      <c r="B39" s="106">
+      <c r="B39" s="105">
         <v>45167</v>
       </c>
-      <c r="C39" s="107">
+      <c r="C39" s="106">
         <v>210</v>
       </c>
-      <c r="D39" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="109">
+      <c r="D39" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="108">
         <v>1395383.95</v>
       </c>
-      <c r="F39" s="176"/>
-      <c r="G39" s="177"/>
-      <c r="H39" s="177"/>
+      <c r="F39" s="174"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1">
-      <c r="B40" s="106">
+      <c r="B40" s="105">
         <v>45190</v>
       </c>
-      <c r="C40" s="107">
+      <c r="C40" s="106">
         <v>15</v>
       </c>
-      <c r="D40" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="109">
+      <c r="D40" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="108">
         <v>-1395383.95</v>
       </c>
-      <c r="F40" s="176"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="177"/>
+      <c r="F40" s="174"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1">
-      <c r="B41" s="106">
+      <c r="B41" s="105">
         <v>45315</v>
       </c>
-      <c r="C41" s="107">
+      <c r="C41" s="106">
         <v>39</v>
       </c>
-      <c r="D41" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="109">
+      <c r="D41" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="108">
         <v>695891.64</v>
       </c>
-      <c r="F41" s="176"/>
-      <c r="G41" s="177"/>
-      <c r="H41" s="177"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1">
-      <c r="B42" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="174"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="111">
+      <c r="B42" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="172"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="110">
         <v>10005470.310000001</v>
       </c>
     </row>
@@ -24867,221 +24867,221 @@
       <c r="Q7" s="37"/>
     </row>
     <row r="10" spans="2:17" ht="21.75" customHeight="1">
-      <c r="B10" s="178" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="179"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="179"/>
+      <c r="B10" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
     </row>
     <row r="11" spans="2:17" ht="28.2" thickBot="1">
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="111" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="112" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="113" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="115" t="s">
-        <v>67</v>
+      <c r="F11" s="114" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B12" s="116">
+      <c r="B12" s="115">
         <v>44643</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="116">
         <v>106</v>
       </c>
-      <c r="D12" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="117" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="118">
+      <c r="D12" s="116" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="117">
         <v>690092.07</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="21" thickBot="1">
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>44685</v>
       </c>
-      <c r="C13" s="107">
+      <c r="C13" s="106">
         <v>209</v>
       </c>
-      <c r="D13" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="109">
+      <c r="D13" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="108">
         <v>223201.87</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="21" thickBot="1">
-      <c r="B14" s="106">
+      <c r="B14" s="105">
         <v>44704</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="106">
         <v>227</v>
       </c>
-      <c r="D14" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="109">
+      <c r="D14" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="108">
         <v>241326.76</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="21" thickBot="1">
-      <c r="B15" s="106">
+      <c r="B15" s="105">
         <v>44741</v>
       </c>
-      <c r="C15" s="107">
+      <c r="C15" s="106">
         <v>333</v>
       </c>
-      <c r="D15" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="109">
+      <c r="D15" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="108">
         <v>645585.44999999995</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="21" thickBot="1">
-      <c r="B16" s="106">
+      <c r="B16" s="105">
         <v>44769</v>
       </c>
-      <c r="C16" s="107">
+      <c r="C16" s="106">
         <v>401</v>
       </c>
-      <c r="D16" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="109">
+      <c r="D16" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="108">
         <v>611167.96</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B17" s="106">
+      <c r="B17" s="105">
         <v>44797</v>
       </c>
-      <c r="C17" s="107">
+      <c r="C17" s="106">
         <v>438</v>
       </c>
-      <c r="D17" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="109">
+      <c r="D17" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="108">
         <v>734337.23</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" thickBot="1">
-      <c r="B18" s="106">
+      <c r="B18" s="105">
         <v>44827</v>
       </c>
-      <c r="C18" s="107">
+      <c r="C18" s="106">
         <v>494</v>
       </c>
-      <c r="D18" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="109">
+      <c r="D18" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="108">
         <v>864643.87</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="21" thickBot="1">
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <v>44860</v>
       </c>
-      <c r="C19" s="107">
+      <c r="C19" s="106">
         <v>604</v>
       </c>
-      <c r="D19" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="109">
+      <c r="D19" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="108">
         <v>1022841.39</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="21" thickBot="1">
-      <c r="B20" s="106">
+      <c r="B20" s="105">
         <v>44894</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="106">
         <v>670</v>
       </c>
-      <c r="D20" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F20" s="109">
+      <c r="D20" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="108">
         <v>943408.64000000001</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21" thickBot="1">
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>44923</v>
       </c>
-      <c r="C21" s="107">
+      <c r="C21" s="106">
         <v>741</v>
       </c>
-      <c r="D21" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="109">
+      <c r="D21" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="108">
         <v>1476861.58</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1">
-      <c r="B22" s="173" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="111">
+      <c r="B22" s="171" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="110">
         <v>7453466.8200000003</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="170" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="172"/>
+      <c r="B24" s="168" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
     </row>
     <row r="25" spans="2:6" ht="28.2" thickBot="1">
       <c r="B25" s="71" t="s">
@@ -25097,136 +25097,136 @@
         <v>48</v>
       </c>
       <c r="F25" s="68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="119">
+      <c r="B26" s="118">
         <v>44952</v>
       </c>
-      <c r="C26" s="107">
+      <c r="C26" s="106">
         <v>19</v>
       </c>
-      <c r="D26" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F26" s="120">
+      <c r="D26" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="119">
         <v>1238097.06</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1">
-      <c r="B27" s="119">
+      <c r="B27" s="118">
         <v>45002</v>
       </c>
-      <c r="C27" s="107">
+      <c r="C27" s="106">
         <v>69</v>
       </c>
-      <c r="D27" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="120">
+      <c r="D27" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="119">
         <v>1502509.18</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
-      <c r="B28" s="119">
+      <c r="B28" s="118">
         <v>45029</v>
       </c>
-      <c r="C28" s="107">
+      <c r="C28" s="106">
         <v>104</v>
       </c>
-      <c r="D28" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="120">
+      <c r="D28" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="119">
         <v>347103.23</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="21" thickBot="1">
-      <c r="B29" s="119">
+      <c r="B29" s="118">
         <v>45041</v>
       </c>
-      <c r="C29" s="107">
+      <c r="C29" s="106">
         <v>140</v>
       </c>
-      <c r="D29" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="120">
+      <c r="D29" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="119">
         <v>1252620.23</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="21" thickBot="1">
-      <c r="B30" s="119">
+      <c r="B30" s="118">
         <v>45069</v>
       </c>
-      <c r="C30" s="107">
+      <c r="C30" s="106">
         <v>185</v>
       </c>
-      <c r="D30" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="120">
+      <c r="D30" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="119">
         <v>907859.51</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="21" thickBot="1">
-      <c r="B31" s="119">
+      <c r="B31" s="118">
         <v>45107</v>
       </c>
-      <c r="C31" s="107">
+      <c r="C31" s="106">
         <v>286</v>
       </c>
-      <c r="D31" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="120">
+      <c r="D31" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="119">
         <v>2867391.06</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="21" thickBot="1">
-      <c r="B32" s="119">
+      <c r="B32" s="118">
         <v>45140</v>
       </c>
-      <c r="C32" s="107">
+      <c r="C32" s="106">
         <v>344</v>
       </c>
-      <c r="D32" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="107" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="120">
+      <c r="D32" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="119">
         <v>1193998.3999999999</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1">
-      <c r="B33" s="180" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="181"/>
-      <c r="D33" s="181"/>
-      <c r="E33" s="182"/>
-      <c r="F33" s="121">
+      <c r="B33" s="178" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="120">
         <v>9309578.6699999999</v>
       </c>
     </row>
@@ -25266,74 +25266,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="70.2" customHeight="1">
-      <c r="A1" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="96" t="s">
+      <c r="A1" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
     </row>
     <row r="4" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -25364,98 +25364,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="70.2" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="F1" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="91" t="s">
+      <c r="H1" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="M1" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="N1" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="M1" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="91" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
     </row>
     <row r="3" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
     </row>
     <row r="4" spans="1:14" ht="36.6" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -25467,7 +25467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2643730C-A887-480C-82C3-06459936A46E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -25508,48 +25508,48 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="190" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="189"/>
       <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="190" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="199">
+      <c r="B7" s="191"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="197">
         <f>'Pesquisa básica 1'!X2</f>
         <v>3478961699.73</v>
       </c>
-      <c r="F7" s="200"/>
+      <c r="F7" s="198"/>
       <c r="H7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="195"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="201">
+      <c r="B8" s="193"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="199">
         <f>'Pesquisa básica 1'!W15</f>
         <v>720584233.74000001</v>
       </c>
-      <c r="F8" s="202"/>
+      <c r="F8" s="200"/>
       <c r="H8" s="24" t="s">
         <v>14</v>
       </c>
@@ -25561,27 +25561,27 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="205">
+      <c r="E9" s="203">
         <f>'Pesquisa básica 1'!X15</f>
         <v>599300000</v>
       </c>
-      <c r="F9" s="206"/>
+      <c r="F9" s="204"/>
       <c r="H9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="197"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="203">
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="201">
         <f>'Pesquisa básica 1'!Y15</f>
         <v>599300000</v>
       </c>
-      <c r="F10" s="204"/>
+      <c r="F10" s="202"/>
       <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
@@ -25608,10 +25608,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="185" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="189"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="4">
         <v>2021</v>
       </c>
@@ -25626,11 +25626,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A22" s="192" t="str">
+      <c r="A22" s="190" t="str">
         <f>A7</f>
         <v>Repassado ao Estado</v>
       </c>
-      <c r="B22" s="194"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="12">
         <f>E7</f>
         <v>3478961699.73</v>
@@ -25640,11 +25640,11 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A23" s="183" t="str">
+      <c r="A23" s="181" t="str">
         <f>A8</f>
         <v>Empenhado</v>
       </c>
-      <c r="B23" s="184"/>
+      <c r="B23" s="182"/>
       <c r="C23" s="2">
         <f>E8</f>
         <v>720584233.74000001</v>
@@ -25654,11 +25654,11 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A24" s="183" t="str">
+      <c r="A24" s="181" t="str">
         <f>A9</f>
         <v>Liquidado</v>
       </c>
-      <c r="B24" s="184"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="2">
         <f>E9</f>
         <v>599300000</v>
@@ -25668,11 +25668,11 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A25" s="183" t="str">
+      <c r="A25" s="181" t="str">
         <f>A10</f>
         <v>Pago</v>
       </c>
-      <c r="B25" s="184"/>
+      <c r="B25" s="182"/>
       <c r="C25" s="2">
         <f>E10</f>
         <v>599300000</v>
@@ -25682,10 +25682,10 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="186"/>
+      <c r="B26" s="184"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
         <f>SUM(D22:D25)</f>
@@ -25902,11 +25902,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="207"/>
-      <c r="C17" s="186"/>
+      <c r="B17" s="205"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="7">
         <f>SUM(D11:D16)</f>
         <v>603978445.99666667</v>
@@ -26172,7 +26172,7 @@
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="39.75" customHeight="1">
       <c r="B15" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="17" spans="2:17" ht="11.25" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -26286,7 +26286,7 @@
     </row>
     <row r="53" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
       <c r="B53" s="127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="127"/>
       <c r="D53" s="127"/>
@@ -26300,7 +26300,7 @@
       </c>
       <c r="K53" s="126"/>
       <c r="L53" s="126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M53" s="126"/>
       <c r="N53" s="126" t="s">
@@ -26308,7 +26308,7 @@
       </c>
       <c r="O53" s="126"/>
       <c r="P53" s="126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="126"/>
     </row>
@@ -26428,7 +26428,7 @@
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="39.75" customHeight="1">
       <c r="B15" s="125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="125"/>
       <c r="D15" s="125"/>
@@ -26465,7 +26465,7 @@
     </row>
     <row r="17" spans="2:17" ht="11.25" customHeight="1">
       <c r="B17" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -26542,7 +26542,7 @@
     </row>
     <row r="53" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
       <c r="B53" s="127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="127"/>
       <c r="D53" s="127"/>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="K53" s="126"/>
       <c r="L53" s="126" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M53" s="126"/>
       <c r="N53" s="126" t="s">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="O53" s="126"/>
       <c r="P53" s="126" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q53" s="126"/>
     </row>
@@ -26957,80 +26957,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.2" customHeight="1">
-      <c r="A1" s="90" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="90" t="s">
+      <c r="A1" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="H1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="91" t="s">
+      <c r="I1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="J1" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="K1" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="91" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
     </row>
     <row r="3" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" ht="36.6" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -27061,92 +27061,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="70.2" customHeight="1">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="96" t="s">
+      <c r="E1" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="91" t="s">
+      <c r="G1" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="L1" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="M1" s="90" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="91" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
     </row>
     <row r="3" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
     </row>
     <row r="4" spans="1:13" ht="36.6" customHeight="1">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="94"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
+++ b/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\especificacoes-portal-transparencia\espec018_recursos-acordo-judicial-vale\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54291645-F66B-4431-BAEA-8245FE0FEC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D95E12F-7210-43C1-B035-8E4F24D95B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" tabRatio="747" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" tabRatio="747" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pesquisa Básica Opcao 1 " sheetId="19" state="hidden" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="Pesquisa básica 1" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="historico ano a ano" sheetId="14" state="hidden" r:id="rId7"/>
     <sheet name="Por Execução - 1º" sheetId="12" r:id="rId8"/>
-    <sheet name="Pesq. Avançada -2º  (2)" sheetId="49" r:id="rId9"/>
+    <sheet name="Por execução -2º  (2)" sheetId="49" r:id="rId9"/>
     <sheet name="For. Detalhamento - Empenho" sheetId="44" r:id="rId10"/>
-    <sheet name="For. Detalhamento- Liquidação" sheetId="45" r:id="rId11"/>
-    <sheet name="For. Detalhamento - Pagamento " sheetId="46" r:id="rId12"/>
-    <sheet name="Pesq. Avançada -1º" sheetId="43" r:id="rId13"/>
-    <sheet name="Pesq. Avançada -2º " sheetId="47" r:id="rId14"/>
-    <sheet name="Adicionar-remover-colunas" sheetId="48" r:id="rId15"/>
-    <sheet name="tab_resultados_pesquisa basica" sheetId="1" state="hidden" r:id="rId16"/>
-    <sheet name="tabela de dados com filtros" sheetId="8" state="hidden" r:id="rId17"/>
+    <sheet name="Planilha1" sheetId="50" r:id="rId11"/>
+    <sheet name="For. Detalhamento- Liquidação" sheetId="45" r:id="rId12"/>
+    <sheet name="For. Detalhamento - Pagamento " sheetId="46" r:id="rId13"/>
+    <sheet name="Pesq. Avançada -1º" sheetId="43" r:id="rId14"/>
+    <sheet name="Pesq. Avançada -2º " sheetId="47" r:id="rId15"/>
+    <sheet name="Adicionar-remover-colunas" sheetId="48" r:id="rId16"/>
+    <sheet name="tab_resultados_pesquisa basica" sheetId="1" state="hidden" r:id="rId17"/>
+    <sheet name="tabela de dados com filtros" sheetId="8" state="hidden" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -299,9 +300,6 @@
     <t>Valor cancelado em restos a pagar</t>
   </si>
   <si>
-    <t>Valor empenhado efetivo</t>
-  </si>
-  <si>
     <t>Valor Pago em restos a pagar</t>
   </si>
   <si>
@@ -477,9 +475,6 @@
     </r>
   </si>
   <si>
-    <t>Essa coluna irá representar o valor empenhado efetivo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -555,6 +550,37 @@
   <si>
     <t>Descrição:</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculo da Coluna:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+= Valor Despesa Empenhada -[ (Valor Cancelado Processado + Valor Cancelado Não Processado) - (Valor Reestabelecido Processado+Valor Reestabelecido Não Processado)].
+Exemplo:
+R$ 101.437.355,21 -&gt; Valor Despesa Empenhada
+- R$ 24.000.000,00 -&gt; Valor Canc. Não Processao
+----------------------------
+R$ 77.437.355,21 -&gt; Valor Empenhado Efetivo</t>
+    </r>
+  </si>
+  <si>
+    <t>Valor empenhado/canelado no exercício</t>
+  </si>
 </sst>
 </file>
 
@@ -566,7 +592,7 @@
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +825,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -838,7 +871,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="125">
+  <borders count="126">
     <border>
       <left/>
       <right/>
@@ -2410,13 +2443,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2635,7 +2677,6 @@
     <xf numFmtId="49" fontId="32" fillId="5" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="27" fillId="2" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2708,8 +2749,8 @@
     <xf numFmtId="8" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2731,6 +2772,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="26" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2810,9 +2857,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2821,6 +2865,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2962,15 +3012,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6381,6 +6422,763 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>441614</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D1D39A-D806-4934-BDEA-C3A15909B4F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="150668"/>
+          <a:ext cx="18706754" cy="519892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546049</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>50578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Google Shape;228;ged7a15311d_0_9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89601F97-2E32-4103-B808-7A817966F252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2926080" y="143741"/>
+          <a:ext cx="11617909" cy="394517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:defPPr>
+          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buFont typeface="Arial"/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+              <a:sym typeface="Arial"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Acordo Judicial </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Rompimento da Barragem Córrego do Feijão - Brumadinho</a:t>
+          </a:r>
+          <a:endParaRPr sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326405</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>574056</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD46FD64-DA72-45D9-9CBE-861D069D23F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13105145" y="0"/>
+          <a:ext cx="247651" cy="225137"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Retângulo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F29BF7-7D9C-47A6-A1C0-7D4C30CDE2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17922240" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>424294</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E388FFD3-FAF4-4924-8472-092060EE6027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent3">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18689434" cy="17318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>345878</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>18457</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152609</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Agrupar 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BDA3A4-9CB4-4DF5-9F50-FCAEC8C8D983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16782218" y="2385062"/>
+          <a:ext cx="282179" cy="419307"/>
+          <a:chOff x="12142992" y="3238503"/>
+          <a:chExt cx="348521" cy="723897"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Imagem 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C768B176-EEE1-F64A-7C81-FAC8237533BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="12142992" y="3635422"/>
+            <a:ext cx="329848" cy="326978"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="Imagem 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F97DB41-A0CC-70DE-C1D8-E4740BE34A43}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12176980" y="3238503"/>
+            <a:ext cx="314533" cy="337096"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>24349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>56117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagem 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FA84CF-F1F6-4B40-BB24-AB9E107197AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="992089"/>
+          <a:ext cx="8024732" cy="543265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagem 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FAA20E-5809-4A87-8EFE-C0D5BAD628CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="859156"/>
+          <a:ext cx="1047090" cy="260935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
@@ -7260,7 +8058,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7399,7 +8197,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
-            <a:t>    Valor Empenhado  Efetivo</a:t>
+            <a:t>    Valor Empenhado/Cancelado no exercício</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7466,15 +8264,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>552433</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>24740</xdr:rowOff>
+      <xdr:colOff>521953</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>17120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7497,7 +8295,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="2202180"/>
+          <a:off x="998220" y="2377440"/>
           <a:ext cx="133333" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7512,13 +8310,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>544813</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>39980</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7541,7 +8339,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1021080" y="2034540"/>
+          <a:off x="1021080" y="2186940"/>
           <a:ext cx="133333" cy="200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7774,7 +8572,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -10219,7 +11017,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -22469,25 +23267,25 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>36368</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>441614</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>389714</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D1D39A-D806-4934-BDEA-C3A15909B4F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7DD9D51-29F1-EFC3-4157-7983CD57E039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22495,412 +23293,15 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect b="48175"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="150668"/>
-          <a:ext cx="18706754" cy="519892"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>29441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546049</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>50578</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Google Shape;228;ged7a15311d_0_9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89601F97-2E32-4103-B808-7A817966F252}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2926080" y="143741"/>
-          <a:ext cx="11617909" cy="394517"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr marR="0" lvl="0" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:defPPr>
-          <a:lvl1pPr marR="0" lvl="0" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marR="0" lvl="1" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marR="0" lvl="2" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marR="0" lvl="3" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marR="0" lvl="4" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marR="0" lvl="5" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marR="0" lvl="6" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marR="0" lvl="7" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marR="0" lvl="8" algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClr>
-              <a:srgbClr val="000000"/>
-            </a:buClr>
-            <a:buFont typeface="Arial"/>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:ea typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-              <a:sym typeface="Arial"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Acordo Judicial </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPct val="115000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Rompimento da Barragem Córrego do Feijão - Brumadinho</a:t>
-          </a:r>
-          <a:endParaRPr sz="1200" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>326405</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>574056</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>110837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD46FD64-DA72-45D9-9CBE-861D069D23F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId3">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13105145" y="0"/>
-          <a:ext cx="247651" cy="225137"/>
+          <a:off x="0" y="1"/>
+          <a:ext cx="6485714" cy="541020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22912,22 +23313,137 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC3740D-ADDA-28AD-ADC1-1D5B4397B24A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30480" y="464820"/>
+          <a:ext cx="2217420" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Dados Atualizados em</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+            <a:t>: 23/06/2024</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311629</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>41784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD90818-AA32-4294-0A11-436F3BE26873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="83820" y="678180"/>
+          <a:ext cx="6323809" cy="1009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Retângulo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F29BF7-7D9C-47A6-A1C0-7D4C30CDE2FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2DE224-6F69-A93A-841F-A14DE88316A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22935,23 +23451,23 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="17922240" cy="0"/>
+          <a:off x="76200" y="502920"/>
+          <a:ext cx="2415540" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -22969,256 +23485,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="pt-BR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>424294</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagem 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E388FFD3-FAF4-4924-8472-092060EE6027}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:schemeClr val="accent3">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18689434" cy="17318"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>345878</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>18457</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152609</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="Agrupar 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5BDA3A4-9CB4-4DF5-9F50-FCAEC8C8D983}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="16782218" y="2385062"/>
-          <a:ext cx="282179" cy="419307"/>
-          <a:chOff x="12142992" y="3238503"/>
-          <a:chExt cx="348521" cy="723897"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="Imagem 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C768B176-EEE1-F64A-7C81-FAC8237533BB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm rot="10800000">
-            <a:off x="12142992" y="3635422"/>
-            <a:ext cx="329848" cy="326978"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="Imagem 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F97DB41-A0CC-70DE-C1D8-E4740BE34A43}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12176980" y="3238503"/>
-            <a:ext cx="314533" cy="337096"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>24349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>56117</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>18974</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FA84CF-F1F6-4B40-BB24-AB9E107197AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="542925" y="992089"/>
-          <a:ext cx="8024732" cy="543265"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1028040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FAA20E-5809-4A87-8EFE-C0D5BAD628CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="859156"/>
-          <a:ext cx="1047090" cy="260935"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23544,24 +23814,24 @@
     </row>
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
     </row>
     <row r="16" spans="2:17" ht="9" customHeight="1">
       <c r="C16" s="37"/>
@@ -23730,42 +24000,42 @@
       <c r="C38" s="42"/>
     </row>
     <row r="39" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="126" t="s">
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="126"/>
+      <c r="J39" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="126"/>
-      <c r="L39" s="126" t="s">
+      <c r="K39" s="125"/>
+      <c r="L39" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="M39" s="126"/>
-      <c r="N39" s="126" t="s">
+      <c r="M39" s="125"/>
+      <c r="N39" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="O39" s="126"/>
-      <c r="P39" s="126" t="s">
+      <c r="O39" s="125"/>
+      <c r="P39" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="Q39" s="126"/>
+      <c r="Q39" s="125"/>
     </row>
     <row r="40" spans="2:17" ht="30" customHeight="1" thickTop="1">
-      <c r="B40" s="122"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="124"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="122"/>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="123"/>
       <c r="J40" s="48"/>
       <c r="K40" s="62"/>
       <c r="L40" s="49"/>
@@ -23833,8 +24103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6B49E-2D21-4AB3-A427-B263997A0711}">
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23933,60 +24203,74 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1">
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="2:17" ht="27.6">
       <c r="B7" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="D7" s="84" t="s">
         <v>80</v>
-      </c>
-      <c r="D7" s="84" t="s">
-        <v>81</v>
       </c>
       <c r="E7" s="83" t="s">
         <v>61</v>
       </c>
+      <c r="F7" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
     </row>
     <row r="8" spans="2:17" ht="33.75" customHeight="1">
-      <c r="B8" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="136"/>
+      <c r="B8" s="135" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
     </row>
     <row r="9" spans="2:17" ht="41.25" customHeight="1">
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="135" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="136"/>
+      <c r="D9" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="135"/>
-      <c r="D9" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="121" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="96"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
     </row>
     <row r="10" spans="2:17" ht="69" customHeight="1" thickBot="1">
-      <c r="B10" s="139" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
+      <c r="B10" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1">
       <c r="B11" s="82"/>
@@ -23995,12 +24279,12 @@
       <c r="E11" s="82"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1">
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="143" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="76" t="s">
@@ -24009,10 +24293,10 @@
       <c r="C13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="146"/>
+      <c r="E13" s="147"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="81">
@@ -24021,10 +24305,10 @@
       <c r="C14" s="80">
         <v>196</v>
       </c>
-      <c r="D14" s="129" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="130"/>
+      <c r="D14" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="131"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="81">
@@ -24033,10 +24317,10 @@
       <c r="C15" s="80">
         <v>241</v>
       </c>
-      <c r="D15" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="130"/>
+      <c r="D15" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
       <c r="B16" s="79" t="s">
@@ -24044,7 +24328,7 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="77"/>
-      <c r="E16" s="97">
+      <c r="E16" s="96">
         <v>90427000</v>
       </c>
     </row>
@@ -24055,12 +24339,12 @@
       <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B18" s="147" t="s">
+      <c r="B18" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="76" t="s">
@@ -24069,10 +24353,10 @@
       <c r="C19" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="145" t="s">
+      <c r="D19" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="146"/>
+      <c r="E19" s="147"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="81">
@@ -24081,10 +24365,10 @@
       <c r="C20" s="80">
         <v>188</v>
       </c>
-      <c r="D20" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="130"/>
+      <c r="D20" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="131"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="81">
@@ -24093,10 +24377,10 @@
       <c r="C21" s="80">
         <v>189</v>
       </c>
-      <c r="D21" s="129" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="130"/>
+      <c r="D21" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="131"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="81">
@@ -24105,10 +24389,10 @@
       <c r="C22" s="80">
         <v>203</v>
       </c>
-      <c r="D22" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="130"/>
+      <c r="D22" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="131"/>
     </row>
     <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="B23" s="81">
@@ -24117,10 +24401,10 @@
       <c r="C23" s="80">
         <v>214</v>
       </c>
-      <c r="D23" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="130"/>
+      <c r="D23" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="131"/>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1">
       <c r="B24" s="74" t="s">
@@ -24128,8 +24412,8 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="72"/>
-      <c r="E24" s="98" t="s">
-        <v>92</v>
+      <c r="E24" s="97" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1"/>
@@ -24145,66 +24429,66 @@
       <c r="B27" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="208" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="206" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="207"/>
-      <c r="F27" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
+      <c r="C27" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="160"/>
+      <c r="F27" s="155" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
     </row>
     <row r="28" spans="2:8" ht="24">
-      <c r="B28" s="99">
+      <c r="B28" s="98">
         <v>44932</v>
       </c>
-      <c r="C28" s="100" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="159">
+      <c r="C28" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="161">
         <v>93983888.390000001</v>
       </c>
-      <c r="E28" s="160"/>
-      <c r="F28" s="154"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
     </row>
     <row r="29" spans="2:8" ht="24">
-      <c r="B29" s="101">
+      <c r="B29" s="100">
         <v>45295</v>
       </c>
-      <c r="C29" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="150">
+      <c r="C29" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="151">
         <v>84674309.719999999</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
     </row>
     <row r="30" spans="2:8" ht="24.6" thickBot="1">
-      <c r="B30" s="103">
+      <c r="B30" s="102">
         <v>45376</v>
       </c>
-      <c r="C30" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="152">
+      <c r="C30" s="103" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="153">
         <v>-24000000</v>
       </c>
-      <c r="E30" s="153"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F27:H30"/>
@@ -24214,6 +24498,7 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F7:J10"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B8:E8"/>
@@ -24234,10 +24519,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859D9EC1-254E-4B6B-97E0-F773D50FA2CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBDAE66-B66A-48DA-848C-69A723A60232}">
   <dimension ref="B1:Q42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
@@ -24258,22 +24558,22 @@
     </row>
     <row r="6" spans="2:17" ht="9.75" hidden="1" customHeight="1"/>
     <row r="7" spans="2:17" ht="36.75" hidden="1" customHeight="1">
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="161"/>
-      <c r="M7" s="161"/>
-      <c r="N7" s="161"/>
-      <c r="O7" s="161"/>
-      <c r="P7" s="161"/>
-      <c r="Q7" s="161"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
     </row>
     <row r="8" spans="2:17" ht="12.75" customHeight="1">
       <c r="B8" s="67"/>
@@ -24361,12 +24661,12 @@
     </row>
     <row r="13" spans="2:17" ht="15" thickBot="1"/>
     <row r="14" spans="2:17">
-      <c r="B14" s="162" t="s">
+      <c r="B14" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="166"/>
     </row>
     <row r="15" spans="2:17" ht="15" thickBot="1">
       <c r="B15" s="71" t="s">
@@ -24383,191 +24683,191 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
-      <c r="B16" s="105">
+      <c r="B16" s="104">
         <v>44641</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="105">
         <v>3</v>
       </c>
-      <c r="D16" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="107">
+      <c r="D16" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="106">
         <v>-690092.97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1">
-      <c r="B17" s="105">
+      <c r="B17" s="104">
         <v>44641</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="105">
         <v>60</v>
       </c>
-      <c r="D17" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="108">
+      <c r="D17" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="107">
         <v>690092.97</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" thickBot="1">
-      <c r="B18" s="105">
+      <c r="B18" s="104">
         <v>44642</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <v>61</v>
       </c>
-      <c r="D18" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="108">
+      <c r="D18" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="107">
         <v>690092.07</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" thickBot="1">
-      <c r="B19" s="105">
+      <c r="B19" s="104">
         <v>44680</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="105">
         <v>134</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="108">
+      <c r="D19" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="107">
         <v>223201.87</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" thickBot="1">
-      <c r="B20" s="105">
+      <c r="B20" s="104">
         <v>44698</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="105">
         <v>163</v>
       </c>
-      <c r="D20" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="108">
+      <c r="D20" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="107">
         <v>241326.76</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="15" thickBot="1">
-      <c r="B21" s="105">
+      <c r="B21" s="104">
         <v>44735</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="105">
         <v>237</v>
       </c>
-      <c r="D21" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="108">
+      <c r="D21" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="107">
         <v>645585.44999999995</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" thickBot="1">
-      <c r="B22" s="105">
+      <c r="B22" s="104">
         <v>44767</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="105">
         <v>306</v>
       </c>
-      <c r="D22" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="108">
+      <c r="D22" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="107">
         <v>611167.96</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" thickBot="1">
-      <c r="B23" s="105">
+      <c r="B23" s="104">
         <v>44790</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="105">
         <v>342</v>
       </c>
-      <c r="D23" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="108">
+      <c r="D23" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="107">
         <v>734337.23</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1">
-      <c r="B24" s="105">
+      <c r="B24" s="104">
         <v>44826</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="105">
         <v>402</v>
       </c>
-      <c r="D24" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="108">
+      <c r="D24" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="107">
         <v>864643.87</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1">
-      <c r="B25" s="105">
+      <c r="B25" s="104">
         <v>44858</v>
       </c>
-      <c r="C25" s="106">
+      <c r="C25" s="105">
         <v>493</v>
       </c>
-      <c r="D25" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="108">
+      <c r="D25" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="107">
         <v>1022841.39</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1">
-      <c r="B26" s="105">
+      <c r="B26" s="104">
         <v>44893</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="105">
         <v>588</v>
       </c>
-      <c r="D26" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="108">
+      <c r="D26" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="107">
         <v>943408.64000000001</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15" thickBot="1">
-      <c r="B27" s="105">
+      <c r="B27" s="104">
         <v>44918</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="105">
         <v>651</v>
       </c>
-      <c r="D27" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="108">
+      <c r="D27" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="107">
         <v>1476861.58</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15" thickBot="1">
-      <c r="B28" s="165" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="109">
+      <c r="B28" s="167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="108">
         <v>7453466.8200000003</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="15" thickBot="1"/>
     <row r="30" spans="2:8">
-      <c r="B30" s="168" t="s">
+      <c r="B30" s="170" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="170"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="172"/>
     </row>
     <row r="31" spans="2:8" ht="15" thickBot="1">
       <c r="B31" s="71" t="s">
@@ -24584,184 +24884,184 @@
       </c>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" thickBot="1">
-      <c r="B32" s="105" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="106">
+      <c r="B32" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="105">
         <v>31</v>
       </c>
-      <c r="D32" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="108">
+      <c r="D32" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="107">
         <v>1238097.06</v>
       </c>
-      <c r="F32" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
+      <c r="F32" s="176" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
     </row>
     <row r="33" spans="2:8" ht="15" thickBot="1">
-      <c r="B33" s="105">
+      <c r="B33" s="104">
         <v>44998</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="105">
         <v>73</v>
       </c>
-      <c r="D33" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="108">
+      <c r="D33" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="107">
         <v>1502509.18</v>
       </c>
-      <c r="F33" s="174"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
     </row>
     <row r="34" spans="2:8" ht="15" thickBot="1">
-      <c r="B34" s="105">
+      <c r="B34" s="104">
         <v>45027</v>
       </c>
-      <c r="C34" s="106">
+      <c r="C34" s="105">
         <v>99</v>
       </c>
-      <c r="D34" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="108">
+      <c r="D34" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="107">
         <v>347103.23</v>
       </c>
-      <c r="F34" s="174"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
     </row>
     <row r="35" spans="2:8" ht="15" thickBot="1">
-      <c r="B35" s="105">
+      <c r="B35" s="104">
         <v>45036</v>
       </c>
-      <c r="C35" s="106">
+      <c r="C35" s="105">
         <v>122</v>
       </c>
-      <c r="D35" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="108">
+      <c r="D35" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="107">
         <v>1252620.23</v>
       </c>
-      <c r="F35" s="174"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
     </row>
     <row r="36" spans="2:8" ht="15" thickBot="1">
-      <c r="B36" s="105">
+      <c r="B36" s="104">
         <v>45063</v>
       </c>
-      <c r="C36" s="106">
+      <c r="C36" s="105">
         <v>157</v>
       </c>
-      <c r="D36" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="108">
+      <c r="D36" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="107">
         <v>907859.51</v>
       </c>
-      <c r="F36" s="174"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1">
-      <c r="B37" s="105">
+      <c r="B37" s="104">
         <v>45104</v>
       </c>
-      <c r="C37" s="106">
+      <c r="C37" s="105">
         <v>186</v>
       </c>
-      <c r="D37" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="108">
+      <c r="D37" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="107">
         <v>2867391.06</v>
       </c>
-      <c r="F37" s="174"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1">
-      <c r="B38" s="105">
+      <c r="B38" s="104">
         <v>45135</v>
       </c>
-      <c r="C38" s="106">
+      <c r="C38" s="105">
         <v>203</v>
       </c>
-      <c r="D38" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="108">
+      <c r="D38" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="107">
         <v>1193998.3999999999</v>
       </c>
-      <c r="F38" s="174"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickBot="1">
-      <c r="B39" s="105">
+      <c r="B39" s="104">
         <v>45167</v>
       </c>
-      <c r="C39" s="106">
+      <c r="C39" s="105">
         <v>210</v>
       </c>
-      <c r="D39" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="108">
+      <c r="D39" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="107">
         <v>1395383.95</v>
       </c>
-      <c r="F39" s="174"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
     </row>
     <row r="40" spans="2:8" ht="15" thickBot="1">
-      <c r="B40" s="105">
+      <c r="B40" s="104">
         <v>45190</v>
       </c>
-      <c r="C40" s="106">
+      <c r="C40" s="105">
         <v>15</v>
       </c>
-      <c r="D40" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="108">
+      <c r="D40" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="107">
         <v>-1395383.95</v>
       </c>
-      <c r="F40" s="174"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
     </row>
     <row r="41" spans="2:8" ht="15" thickBot="1">
-      <c r="B41" s="105">
+      <c r="B41" s="104">
         <v>45315</v>
       </c>
-      <c r="C41" s="106">
+      <c r="C41" s="105">
         <v>39</v>
       </c>
-      <c r="D41" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="108">
+      <c r="D41" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="107">
         <v>695891.64</v>
       </c>
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
     </row>
     <row r="42" spans="2:8" ht="15" thickBot="1">
-      <c r="B42" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="172"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="110">
+      <c r="B42" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="174"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="109">
         <v>10005470.310000001</v>
       </c>
     </row>
@@ -24780,11 +25080,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310F5D3D-47EF-462E-999D-07399444B023}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -24867,221 +25167,221 @@
       <c r="Q7" s="37"/>
     </row>
     <row r="10" spans="2:17" ht="21.75" customHeight="1">
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
     </row>
     <row r="11" spans="2:17" ht="28.2" thickBot="1">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="113" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B12" s="115">
+      <c r="B12" s="114">
         <v>44643</v>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="115">
         <v>106</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="117">
+      <c r="E12" s="115" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="116">
         <v>690092.07</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="21" thickBot="1">
-      <c r="B13" s="105">
+      <c r="B13" s="104">
         <v>44685</v>
       </c>
-      <c r="C13" s="106">
+      <c r="C13" s="105">
         <v>209</v>
       </c>
-      <c r="D13" s="106" t="s">
+      <c r="D13" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="108">
+      <c r="E13" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="107">
         <v>223201.87</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="21" thickBot="1">
-      <c r="B14" s="105">
+      <c r="B14" s="104">
         <v>44704</v>
       </c>
-      <c r="C14" s="106">
+      <c r="C14" s="105">
         <v>227</v>
       </c>
-      <c r="D14" s="106" t="s">
+      <c r="D14" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="108">
+      <c r="E14" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="107">
         <v>241326.76</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="21" thickBot="1">
-      <c r="B15" s="105">
+      <c r="B15" s="104">
         <v>44741</v>
       </c>
-      <c r="C15" s="106">
+      <c r="C15" s="105">
         <v>333</v>
       </c>
-      <c r="D15" s="106" t="s">
+      <c r="D15" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="108">
+      <c r="E15" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="107">
         <v>645585.44999999995</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="21" thickBot="1">
-      <c r="B16" s="105">
+      <c r="B16" s="104">
         <v>44769</v>
       </c>
-      <c r="C16" s="106">
+      <c r="C16" s="105">
         <v>401</v>
       </c>
-      <c r="D16" s="106" t="s">
+      <c r="D16" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="108">
+      <c r="E16" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="107">
         <v>611167.96</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B17" s="105">
+      <c r="B17" s="104">
         <v>44797</v>
       </c>
-      <c r="C17" s="106">
+      <c r="C17" s="105">
         <v>438</v>
       </c>
-      <c r="D17" s="106" t="s">
+      <c r="D17" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="108">
+      <c r="E17" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="107">
         <v>734337.23</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" thickBot="1">
-      <c r="B18" s="105">
+      <c r="B18" s="104">
         <v>44827</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="105">
         <v>494</v>
       </c>
-      <c r="D18" s="106" t="s">
+      <c r="D18" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="108">
+      <c r="E18" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="107">
         <v>864643.87</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="21" thickBot="1">
-      <c r="B19" s="105">
+      <c r="B19" s="104">
         <v>44860</v>
       </c>
-      <c r="C19" s="106">
+      <c r="C19" s="105">
         <v>604</v>
       </c>
-      <c r="D19" s="106" t="s">
+      <c r="D19" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="108">
+      <c r="E19" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="107">
         <v>1022841.39</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="21" thickBot="1">
-      <c r="B20" s="105">
+      <c r="B20" s="104">
         <v>44894</v>
       </c>
-      <c r="C20" s="106">
+      <c r="C20" s="105">
         <v>670</v>
       </c>
-      <c r="D20" s="106" t="s">
+      <c r="D20" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="108">
+      <c r="E20" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="107">
         <v>943408.64000000001</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="21" thickBot="1">
-      <c r="B21" s="105">
+      <c r="B21" s="104">
         <v>44923</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="105">
         <v>741</v>
       </c>
-      <c r="D21" s="106" t="s">
+      <c r="D21" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="108">
+      <c r="E21" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="107">
         <v>1476861.58</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15" thickBot="1">
-      <c r="B22" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="110">
+      <c r="B22" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="109">
         <v>7453466.8200000003</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15" thickBot="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="168" t="s">
+      <c r="B24" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="170"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="172"/>
     </row>
     <row r="25" spans="2:6" ht="28.2" thickBot="1">
       <c r="B25" s="71" t="s">
@@ -25101,132 +25401,132 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="21" thickBot="1">
-      <c r="B26" s="118">
+      <c r="B26" s="117">
         <v>44952</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="105">
         <v>19</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="D26" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="119">
+      <c r="E26" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="118">
         <v>1238097.06</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="21" thickBot="1">
-      <c r="B27" s="118">
+      <c r="B27" s="117">
         <v>45002</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="105">
         <v>69</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="D27" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="119">
+      <c r="E27" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="118">
         <v>1502509.18</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="21" thickBot="1">
-      <c r="B28" s="118">
+      <c r="B28" s="117">
         <v>45029</v>
       </c>
-      <c r="C28" s="106">
+      <c r="C28" s="105">
         <v>104</v>
       </c>
-      <c r="D28" s="106" t="s">
+      <c r="D28" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F28" s="119">
+      <c r="E28" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="118">
         <v>347103.23</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="21" thickBot="1">
-      <c r="B29" s="118">
+      <c r="B29" s="117">
         <v>45041</v>
       </c>
-      <c r="C29" s="106">
+      <c r="C29" s="105">
         <v>140</v>
       </c>
-      <c r="D29" s="106" t="s">
+      <c r="D29" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="119">
+      <c r="E29" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="118">
         <v>1252620.23</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="21" thickBot="1">
-      <c r="B30" s="118">
+      <c r="B30" s="117">
         <v>45069</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="105">
         <v>185</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="D30" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="119">
+      <c r="E30" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="118">
         <v>907859.51</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="21" thickBot="1">
-      <c r="B31" s="118">
+      <c r="B31" s="117">
         <v>45107</v>
       </c>
-      <c r="C31" s="106">
+      <c r="C31" s="105">
         <v>286</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D31" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="119">
+      <c r="E31" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="118">
         <v>2867391.06</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="21" thickBot="1">
-      <c r="B32" s="118">
+      <c r="B32" s="117">
         <v>45140</v>
       </c>
-      <c r="C32" s="106">
+      <c r="C32" s="105">
         <v>344</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="119">
+      <c r="E32" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="118">
         <v>1193998.3999999999</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15" thickBot="1">
-      <c r="B33" s="178" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="120">
+      <c r="B33" s="180" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="181"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="119">
         <v>9309578.6699999999</v>
       </c>
     </row>
@@ -25243,12 +25543,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DC1E0B-3121-4A7D-BB65-661097F73B42}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.44140625" defaultRowHeight="14.4"/>
@@ -25288,13 +25588,13 @@
         <v>70</v>
       </c>
       <c r="H1" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="J1" s="90" t="s">
         <v>72</v>
-      </c>
-      <c r="J1" s="90" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="36.6" customHeight="1">
@@ -25341,12 +25641,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2F9294-E489-43A6-8A54-51F6A371E2C1}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.44140625" defaultRowHeight="14.4"/>
@@ -25365,22 +25665,22 @@
   <sheetData>
     <row r="1" spans="1:14" ht="70.2" customHeight="1">
       <c r="A1" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="C1" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="95" t="s">
+      <c r="F1" s="95" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="95" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="90" t="s">
         <v>13</v>
@@ -25398,13 +25698,13 @@
         <v>70</v>
       </c>
       <c r="L1" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="N1" s="90" t="s">
         <v>72</v>
-      </c>
-      <c r="N1" s="90" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="36.6" customHeight="1">
@@ -25463,12 +25763,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2643730C-A887-480C-82C3-06459936A46E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25478,7 +25778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A5:H26"/>
   <sheetViews>
@@ -25508,48 +25808,48 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="185" t="s">
+      <c r="A6" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188" t="s">
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="189"/>
+      <c r="F6" s="191"/>
       <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A7" s="190" t="s">
+      <c r="A7" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="197">
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="199">
         <f>'Pesquisa básica 1'!X2</f>
         <v>3478961699.73</v>
       </c>
-      <c r="F7" s="198"/>
+      <c r="F7" s="200"/>
       <c r="H7" s="24" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1">
-      <c r="A8" s="181" t="s">
+      <c r="A8" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="193"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="182"/>
-      <c r="E8" s="199">
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="201">
         <f>'Pesquisa básica 1'!W15</f>
         <v>720584233.74000001</v>
       </c>
-      <c r="F8" s="200"/>
+      <c r="F8" s="202"/>
       <c r="H8" s="24" t="s">
         <v>14</v>
       </c>
@@ -25561,27 +25861,27 @@
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="203">
+      <c r="E9" s="205">
         <f>'Pesquisa básica 1'!X15</f>
         <v>599300000</v>
       </c>
-      <c r="F9" s="204"/>
+      <c r="F9" s="206"/>
       <c r="H9" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="201">
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="203">
         <f>'Pesquisa básica 1'!Y15</f>
         <v>599300000</v>
       </c>
-      <c r="F10" s="202"/>
+      <c r="F10" s="204"/>
       <c r="H10" s="24" t="s">
         <v>16</v>
       </c>
@@ -25608,10 +25908,10 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A21" s="185" t="s">
+      <c r="A21" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="187"/>
+      <c r="B21" s="189"/>
       <c r="C21" s="4">
         <v>2021</v>
       </c>
@@ -25626,11 +25926,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A22" s="190" t="str">
+      <c r="A22" s="192" t="str">
         <f>A7</f>
         <v>Repassado ao Estado</v>
       </c>
-      <c r="B22" s="192"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="12">
         <f>E7</f>
         <v>3478961699.73</v>
@@ -25640,11 +25940,11 @@
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A23" s="181" t="str">
+      <c r="A23" s="183" t="str">
         <f>A8</f>
         <v>Empenhado</v>
       </c>
-      <c r="B23" s="182"/>
+      <c r="B23" s="184"/>
       <c r="C23" s="2">
         <f>E8</f>
         <v>720584233.74000001</v>
@@ -25654,11 +25954,11 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A24" s="181" t="str">
+      <c r="A24" s="183" t="str">
         <f>A9</f>
         <v>Liquidado</v>
       </c>
-      <c r="B24" s="182"/>
+      <c r="B24" s="184"/>
       <c r="C24" s="2">
         <f>E9</f>
         <v>599300000</v>
@@ -25668,11 +25968,11 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A25" s="181" t="str">
+      <c r="A25" s="183" t="str">
         <f>A10</f>
         <v>Pago</v>
       </c>
-      <c r="B25" s="182"/>
+      <c r="B25" s="184"/>
       <c r="C25" s="2">
         <f>E10</f>
         <v>599300000</v>
@@ -25682,10 +25982,10 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="184"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
         <f>SUM(D22:D25)</f>
@@ -25724,7 +26024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A9:I25"/>
   <sheetViews>
@@ -25902,11 +26202,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A17" s="183" t="s">
+      <c r="A17" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="184"/>
+      <c r="B17" s="207"/>
+      <c r="C17" s="186"/>
       <c r="D17" s="7">
         <f>SUM(D11:D16)</f>
         <v>603978445.99666667</v>
@@ -25957,22 +26257,22 @@
     </row>
     <row r="5" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="6" spans="2:17" ht="28.5" customHeight="1">
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
     </row>
     <row r="7" spans="2:17" ht="5.25" customHeight="1">
       <c r="C7" s="37"/>
@@ -26171,24 +26471,24 @@
     </row>
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="39.75" customHeight="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
     </row>
     <row r="16" spans="2:17" ht="9" customHeight="1">
       <c r="C16" s="37"/>
@@ -26285,42 +26585,42 @@
       <c r="C52" s="42"/>
     </row>
     <row r="53" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="126" t="s">
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126" t="s">
+      <c r="K53" s="125"/>
+      <c r="L53" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126" t="s">
+      <c r="M53" s="125"/>
+      <c r="N53" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126" t="s">
+      <c r="O53" s="125"/>
+      <c r="P53" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="Q53" s="126"/>
+      <c r="Q53" s="125"/>
     </row>
     <row r="54" spans="2:17" ht="30" customHeight="1" thickTop="1">
-      <c r="B54" s="122"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="124"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="123"/>
       <c r="J54" s="48"/>
       <c r="K54" s="62"/>
       <c r="L54" s="49"/>
@@ -26427,24 +26727,24 @@
     </row>
     <row r="14" spans="2:17" ht="9.75" customHeight="1"/>
     <row r="15" spans="2:17" ht="39.75" customHeight="1">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="125"/>
-      <c r="Q15" s="125"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
     </row>
     <row r="16" spans="2:17" ht="9" customHeight="1">
       <c r="C16" s="37"/>
@@ -26541,42 +26841,42 @@
       <c r="C52" s="42"/>
     </row>
     <row r="53" spans="2:17" ht="32.25" customHeight="1" thickBot="1">
-      <c r="B53" s="127" t="s">
+      <c r="B53" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="127"/>
-      <c r="J53" s="126" t="s">
+      <c r="C53" s="126"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="126"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="126"/>
+      <c r="H53" s="126"/>
+      <c r="I53" s="126"/>
+      <c r="J53" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="K53" s="126"/>
-      <c r="L53" s="126" t="s">
+      <c r="K53" s="125"/>
+      <c r="L53" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="M53" s="126"/>
-      <c r="N53" s="126" t="s">
+      <c r="M53" s="125"/>
+      <c r="N53" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="O53" s="126"/>
-      <c r="P53" s="126" t="s">
+      <c r="O53" s="125"/>
+      <c r="P53" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="Q53" s="126"/>
+      <c r="Q53" s="125"/>
     </row>
     <row r="54" spans="2:17" ht="30" customHeight="1" thickTop="1">
-      <c r="B54" s="122"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="124"/>
+      <c r="B54" s="121"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="123"/>
       <c r="J54" s="48"/>
       <c r="K54" s="62"/>
       <c r="L54" s="49"/>
@@ -26697,16 +26997,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="17.399999999999999">
-      <c r="A1" s="128"/>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
+      <c r="A1" s="127"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
       <c r="W1" t="s">
         <v>20</v>
       </c>
@@ -26715,16 +27015,16 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="17.399999999999999">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
+      <c r="A2" s="127"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
       <c r="Q2" s="17" t="s">
         <v>30</v>
       </c>
@@ -26939,7 +27239,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.44140625" defaultRowHeight="14.4"/>
@@ -26951,14 +27251,14 @@
     <col min="6" max="6" width="13.21875" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="70.2" customHeight="1">
       <c r="A1" s="89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>67</v>
@@ -26982,13 +27282,13 @@
         <v>70</v>
       </c>
       <c r="I1" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="K1" s="90" t="s">
         <v>72</v>
-      </c>
-      <c r="K1" s="90" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36.6" customHeight="1">
@@ -27043,7 +27343,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.44140625" defaultRowHeight="14.4"/>
@@ -27062,19 +27362,19 @@
   <sheetData>
     <row r="1" spans="1:13" ht="70.2" customHeight="1">
       <c r="A1" s="95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C1" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="E1" s="95" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="95" t="s">
-        <v>78</v>
       </c>
       <c r="F1" s="90" t="s">
         <v>13</v>
@@ -27092,13 +27392,13 @@
         <v>70</v>
       </c>
       <c r="K1" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="M1" s="90" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="90" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="36.6" customHeight="1">

--- a/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
+++ b/espec018_recursos-acordo-judicial-vale/static/template_demanda_TCE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silviana\Documents\.CGE\transparencia-mg\especificacoes-portal-transparencia\espec018_recursos-acordo-judicial-vale\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D95E12F-7210-43C1-B035-8E4F24D95B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF5F25-F15A-41B9-A181-5F481E1E0446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-108" windowWidth="20712" windowHeight="11016" tabRatio="747" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,6 +551,9 @@
     <t>Descrição:</t>
   </si>
   <si>
+    <t>Valor empenhado/canelado no exercício</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -570,16 +573,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-= Valor Despesa Empenhada -[ (Valor Cancelado Processado + Valor Cancelado Não Processado) - (Valor Reestabelecido Processado+Valor Reestabelecido Não Processado)].
+= Valor Despesa Empenhada Inicial + Reforço- Anulação -[ (Valor Cancelado Processado + Valor Cancelado Não Processado) - (Valor Reestabelecido Processado+Valor Reestabelecido Não Processado)].
 Exemplo:
 R$ 101.437.355,21 -&gt; Valor Despesa Empenhada
 - R$ 24.000.000,00 -&gt; Valor Canc. Não Processao
 ----------------------------
 R$ 77.437.355,21 -&gt; Valor Empenhado Efetivo</t>
     </r>
-  </si>
-  <si>
-    <t>Valor empenhado/canelado no exercício</t>
   </si>
 </sst>
 </file>
@@ -2773,7 +2773,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2784,6 +2796,30 @@
     </xf>
     <xf numFmtId="4" fontId="25" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="125" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2841,42 +2877,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="91" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="25" fillId="2" borderId="106" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
@@ -24103,8 +24103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6B49E-2D21-4AB3-A427-B263997A0711}">
   <dimension ref="B1:Q30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:J10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -24203,12 +24203,12 @@
       <c r="Q5" s="37"/>
     </row>
     <row r="6" spans="2:17" ht="15" thickBot="1">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="134"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
     </row>
     <row r="7" spans="2:17" ht="27.6">
       <c r="B7" s="85" t="s">
@@ -24223,54 +24223,54 @@
       <c r="E7" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
+      <c r="F7" s="143" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="8" spans="2:17" ht="33.75" customHeight="1">
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
     </row>
     <row r="9" spans="2:17" ht="41.25" customHeight="1">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="148"/>
+      <c r="D9" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="139"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
     </row>
     <row r="10" spans="2:17" ht="69" customHeight="1" thickBot="1">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="2:17" ht="15" thickBot="1">
       <c r="B11" s="82"/>
@@ -24279,12 +24279,12 @@
       <c r="E11" s="82"/>
     </row>
     <row r="12" spans="2:17" ht="15" thickBot="1">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
     </row>
     <row r="13" spans="2:17">
       <c r="B13" s="76" t="s">
@@ -24293,10 +24293,10 @@
       <c r="C13" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="146" t="s">
+      <c r="D13" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="147"/>
+      <c r="E13" s="159"/>
     </row>
     <row r="14" spans="2:17">
       <c r="B14" s="81">
@@ -24305,10 +24305,10 @@
       <c r="C14" s="80">
         <v>196</v>
       </c>
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="131"/>
+      <c r="E14" s="135"/>
     </row>
     <row r="15" spans="2:17">
       <c r="B15" s="81">
@@ -24317,10 +24317,10 @@
       <c r="C15" s="80">
         <v>241</v>
       </c>
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="135"/>
     </row>
     <row r="16" spans="2:17" ht="15" thickBot="1">
       <c r="B16" s="79" t="s">
@@ -24339,12 +24339,12 @@
       <c r="E17" s="86"/>
     </row>
     <row r="18" spans="2:8" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="162"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="76" t="s">
@@ -24353,10 +24353,10 @@
       <c r="C19" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="158" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="147"/>
+      <c r="E19" s="159"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="81">
@@ -24365,10 +24365,10 @@
       <c r="C20" s="80">
         <v>188</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="131"/>
+      <c r="E20" s="135"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="81">
@@ -24377,10 +24377,10 @@
       <c r="C21" s="80">
         <v>189</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="135"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
       <c r="B22" s="81">
@@ -24389,10 +24389,10 @@
       <c r="C22" s="80">
         <v>203</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="135"/>
     </row>
     <row r="23" spans="2:8" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="B23" s="81">
@@ -24401,10 +24401,10 @@
       <c r="C23" s="80">
         <v>214</v>
       </c>
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="131"/>
+      <c r="E23" s="135"/>
     </row>
     <row r="24" spans="2:8" ht="15" thickBot="1">
       <c r="B24" s="74" t="s">
@@ -24418,12 +24418,12 @@
     </row>
     <row r="25" spans="2:8" ht="15" thickBot="1"/>
     <row r="26" spans="2:8" ht="15" thickBot="1">
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="136" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="158"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="138"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" thickBot="1">
       <c r="B27" s="88" t="s">
@@ -24432,15 +24432,15 @@
       <c r="C27" s="120" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="159" t="s">
+      <c r="D27" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="160"/>
-      <c r="F27" s="155" t="s">
+      <c r="E27" s="140"/>
+      <c r="F27" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
     </row>
     <row r="28" spans="2:8" ht="24">
       <c r="B28" s="98">
@@ -24449,13 +24449,13 @@
       <c r="C28" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="161">
+      <c r="D28" s="141">
         <v>93983888.390000001</v>
       </c>
-      <c r="E28" s="162"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
     </row>
     <row r="29" spans="2:8" ht="24">
       <c r="B29" s="100">
@@ -24464,13 +24464,13 @@
       <c r="C29" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="128">
         <v>84674309.719999999</v>
       </c>
-      <c r="E29" s="152"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="133"/>
     </row>
     <row r="30" spans="2:8" ht="24.6" thickBot="1">
       <c r="B30" s="102">
@@ -24479,25 +24479,16 @@
       <c r="C30" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="153">
+      <c r="D30" s="130">
         <v>-24000000</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F27:H30"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F7:J10"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="B6:E6"/>
@@ -24511,6 +24502,15 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F27:H30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25588,7 +25588,7 @@
         <v>70</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="90" t="s">
         <v>71</v>
@@ -25698,7 +25698,7 @@
         <v>70</v>
       </c>
       <c r="L1" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M1" s="90" t="s">
         <v>71</v>
@@ -27282,7 +27282,7 @@
         <v>70</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" s="90" t="s">
         <v>71</v>
@@ -27392,7 +27392,7 @@
         <v>70</v>
       </c>
       <c r="K1" s="90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L1" s="90" t="s">
         <v>71</v>
